--- a/measurement/electrolyzer.xlsx
+++ b/measurement/electrolyzer.xlsx
@@ -286,6 +286,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -349,11 +350,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="19669107"/>
-        <c:axId val="33394621"/>
+        <c:axId val="43149652"/>
+        <c:axId val="50442353"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19669107"/>
+        <c:axId val="43149652"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -388,7 +389,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -410,12 +411,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33394621"/>
+        <c:crossAx val="50442353"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33394621"/>
+        <c:axId val="50442353"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1"/>
@@ -459,7 +460,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -481,9 +482,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19669107"/>
+        <c:crossAx val="43149652"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -581,6 +582,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -644,11 +646,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="64259366"/>
-        <c:axId val="73991356"/>
+        <c:axId val="71840690"/>
+        <c:axId val="93097037"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64259366"/>
+        <c:axId val="71840690"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -683,7 +685,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -705,12 +707,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73991356"/>
+        <c:crossAx val="93097037"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73991356"/>
+        <c:axId val="93097037"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +755,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -775,9 +777,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64259366"/>
+        <c:crossAx val="71840690"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -875,6 +877,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -938,11 +941,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="19948056"/>
-        <c:axId val="54710451"/>
+        <c:axId val="30100151"/>
+        <c:axId val="53164819"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19948056"/>
+        <c:axId val="30100151"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -977,7 +980,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -999,12 +1002,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54710451"/>
+        <c:crossAx val="53164819"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54710451"/>
+        <c:axId val="53164819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,7 +1050,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1069,9 +1072,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19948056"/>
+        <c:crossAx val="30100151"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1169,6 +1172,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1232,11 +1236,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="20581367"/>
-        <c:axId val="47654282"/>
+        <c:axId val="34288487"/>
+        <c:axId val="45478457"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20581367"/>
+        <c:axId val="34288487"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1271,7 +1275,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1293,12 +1297,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47654282"/>
+        <c:crossAx val="45478457"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47654282"/>
+        <c:axId val="45478457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1345,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1363,9 +1367,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20581367"/>
+        <c:crossAx val="34288487"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1401,9 +1405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1412,7 +1416,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="69120" y="1362240"/>
-        <a:ext cx="5756040" cy="3238560"/>
+        <a:ext cx="5761440" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1425,15 +1429,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>335880</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>562680</xdr:colOff>
+      <xdr:colOff>582120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1441,8 +1445,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5825160" y="1390680"/>
-        <a:ext cx="5756040" cy="3238560"/>
+        <a:off x="5850720" y="1332720"/>
+        <a:ext cx="5761080" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1461,9 +1465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>296640</xdr:colOff>
+      <xdr:colOff>296280</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1472,7 +1476,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="49680" y="4447800"/>
-        <a:ext cx="5756040" cy="3238560"/>
+        <a:ext cx="5761440" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1491,9 +1495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
+      <xdr:colOff>49320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1501,8 +1505,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5924160" y="4553280"/>
-        <a:ext cx="5756040" cy="3238560"/>
+        <a:off x="5929920" y="4553280"/>
+        <a:ext cx="5761800" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1520,13 +1524,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
+      <selection pane="topLeft" activeCell="V22" activeCellId="0" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
